--- a/docroot/file/appraisal_organization_template.xlsx
+++ b/docroot/file/appraisal_organization_template.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJ-Chokanan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>is_active</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>org_code</t>
   </si>
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -147,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -199,7 +191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -393,18 +385,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
@@ -412,23 +404,19 @@
     <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="16.140625" style="3"/>
-    <col min="14" max="16384" width="16.140625" style="1"/>
+    <col min="4" max="12" width="16.140625" style="3"/>
+    <col min="13" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docroot/file/appraisal_organization_template.xlsx
+++ b/docroot/file/appraisal_organization_template.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJ-Chokanan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>org_code</t>
   </si>
@@ -29,11 +34,14 @@
   <si>
     <t>parent_org_code</t>
   </si>
+  <si>
+    <t>org_abbr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -139,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -385,30 +393,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="12" width="16.140625" style="3"/>
-    <col min="13" max="16384" width="16.140625" style="1"/>
+    <col min="2" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -416,11 +423,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2z6N6/PRd/bZq+3lji3jkCYbSyVwZCI+7dgWVMrY3mOeInUA/UM0jRyF3IsZo9wmB9uyJ+JXYFhQDoBgHwmmrA==" saltValue="8J68DAgGjb31x9dbNoAP+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docroot/file/appraisal_organization_template.xlsx
+++ b/docroot/file/appraisal_organization_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>org_code</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>org_abbr</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longtitude</t>
   </si>
 </sst>
 </file>
@@ -78,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -87,6 +93,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
@@ -415,7 +424,7 @@
     <col min="5" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,9 +437,15 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2z6N6/PRd/bZq+3lji3jkCYbSyVwZCI+7dgWVMrY3mOeInUA/UM0jRyF3IsZo9wmB9uyJ+JXYFhQDoBgHwmmrA==" saltValue="8J68DAgGjb31x9dbNoAP+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GDiNvEkf9G1wrsCG1ehvK04PcM/ooDIXPkBwEG2sYrVvts+prgsjA9DwwtlxfdbLQtcdR55MKsJtV43M6rlA7A==" saltValue="fWWyk/VPUTo4UNJpZQpYFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docroot/file/appraisal_organization_template.xlsx
+++ b/docroot/file/appraisal_organization_template.xlsx
@@ -41,7 +41,7 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>longtitude</t>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -95,6 +95,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,19 +419,19 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
     <col min="2" max="3" width="25.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -445,7 +451,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GDiNvEkf9G1wrsCG1ehvK04PcM/ooDIXPkBwEG2sYrVvts+prgsjA9DwwtlxfdbLQtcdR55MKsJtV43M6rlA7A==" saltValue="fWWyk/VPUTo4UNJpZQpYFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lzkdQaDeirnBdT54UhH1rsujEQAwp4XEBoC/1MlVpW8n9gtmtNp8dJAiUYbNLpBV9zmzcjyhyAUcHIn5h/dRkw==" saltValue="juCknGux4F88YEOGVcWl6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docroot/file/appraisal_organization_template.xlsx
+++ b/docroot/file/appraisal_organization_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJ-Chokanan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toto\git\see-kpi-portlet\lenso\develop\docroot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE484BB6-2A19-46DB-AFB0-371CC520FD44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>org_code</t>
   </si>
@@ -42,12 +43,15 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>org_email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -415,22 +419,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
     <col min="2" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.140625" style="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -441,17 +446,21 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lzkdQaDeirnBdT54UhH1rsujEQAwp4XEBoC/1MlVpW8n9gtmtNp8dJAiUYbNLpBV9zmzcjyhyAUcHIn5h/dRkw==" saltValue="juCknGux4F88YEOGVcWl6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docroot/file/appraisal_organization_template.xlsx
+++ b/docroot/file/appraisal_organization_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJ-Chokanan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toto\Documents\GitHub\see-kpi-portlet\docroot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C38A3832-72BD-464A-BBA8-DBFB36DAEDC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>org_code</t>
   </si>
@@ -42,12 +43,15 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>org_email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -415,22 +419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.140625" style="1"/>
+    <col min="2" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -441,17 +445,20 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lzkdQaDeirnBdT54UhH1rsujEQAwp4XEBoC/1MlVpW8n9gtmtNp8dJAiUYbNLpBV9zmzcjyhyAUcHIn5h/dRkw==" saltValue="juCknGux4F88YEOGVcWl6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
